--- a/Descargas/R15_1º Juzgado Civil De San Miguel_Ingresos_2020-Septiembre.xlsx
+++ b/Descargas/R15_1º Juzgado Civil De San Miguel_Ingresos_2020-Septiembre.xlsx
@@ -231,33 +231,33 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+          <t xml:space="preserve">Arbitro Y Derivados, Designacion De</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Arrendamiento,Cobro Renta Bs.raices Urbanos</t>
+          <t xml:space="preserve">Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
+          <t xml:space="preserve">Arrendamiento,Cobro Renta Bs.raices Urbanos</t>
         </is>
       </c>
       <c r="B6" s="65">
@@ -267,7 +267,7 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Arrendamiento,Restitución Por Expiración Tiempo Estipulado</t>
+          <t xml:space="preserve">Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
         </is>
       </c>
       <c r="B7" s="65">
@@ -277,57 +277,57 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Bienes Muebles, Remate Art. 184</t>
+          <t xml:space="preserve">Arrendamiento,Restitución Por Expiración Tiempo Estipulado</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Cheque, Cobro De</t>
+          <t xml:space="preserve">Bienes Raíces, Autorización Enajenar</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Cheque, Notificación Protesto</t>
+          <t xml:space="preserve">Bienes Raíces, Reclamo Negativa Del Conservador</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Confesión De Deuda, Citación</t>
+          <t xml:space="preserve">Cheque, Cobro De</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Consignación, Pago Por Art. 1600 C.c.</t>
+          <t xml:space="preserve">Cheque, Notificación Protesto</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Contrato, Nulidad De</t>
+          <t xml:space="preserve">Cobro De Gastos Comunes</t>
         </is>
       </c>
       <c r="B13" s="65">
@@ -337,17 +337,17 @@
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Crédito, Extravío De Título</t>
+          <t xml:space="preserve">Confesión De Deuda, Citación</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Curador, Nombramiento De</t>
+          <t xml:space="preserve">Contrato, Nulidad De</t>
         </is>
       </c>
       <c r="B15" s="65">
@@ -357,17 +357,17 @@
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Demencia C/Certificado Compin, Interdicción Por</t>
+          <t xml:space="preserve">Contrato, Resolución De</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Demencia S/Cert. Compin, Interdicción Por</t>
+          <t xml:space="preserve">Curador, Nombramiento De</t>
         </is>
       </c>
       <c r="B17" s="65">
@@ -377,7 +377,7 @@
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Desposeimiento, Notificación De</t>
+          <t xml:space="preserve">De La Compensación De Derechos En Dinero, Art.28 Dl 2695</t>
         </is>
       </c>
       <c r="B18" s="65">
@@ -387,27 +387,27 @@
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Expropiación, Consignación Monto Provisorio Art.17 D.l.2186</t>
+          <t xml:space="preserve">Demencia C/Certificado Compin, Interdicción Por</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Factura, Notificación De</t>
+          <t xml:space="preserve">Demencia S/Cert. Compin, Interdicción Por</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Hacienda,Proced.cuantía Inferior Art. 749 C.p.c.</t>
+          <t xml:space="preserve">Desposeimiento, Notificación De</t>
         </is>
       </c>
       <c r="B21" s="65">
@@ -417,67 +417,67 @@
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Hipotecaria, Acción Según Ley De Bancos</t>
+          <t xml:space="preserve">Factura, Notificación De</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Letra De Cambio, Cobro De</t>
+          <t xml:space="preserve">Hipotecaria, Acción Según Ley De Bancos</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Liquidación Voluntaria Empresa Deudora</t>
+          <t xml:space="preserve">Indemnización De Perjuicios Transporte Terrestre</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Liquidación Voluntaria Persona Natural</t>
+          <t xml:space="preserve">Jactancia</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Medida Prejudicial Preparatoria</t>
+          <t xml:space="preserve">Liquidación Voluntaria Empresa Deudora</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Muerte Presunta</t>
+          <t xml:space="preserve">Liquidación Voluntaria Persona Natural</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Mutuo, Cobro Ejecutivo De</t>
+          <t xml:space="preserve">Medida Prejudicial Precautoria</t>
         </is>
       </c>
       <c r="B28" s="65">
@@ -487,141 +487,181 @@
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Nombre, Autorización Cambio De</t>
+          <t xml:space="preserve">Minera, Manifestación (Concesión Para Explotación)</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Obligación De Dar, Cumplimiento</t>
+          <t xml:space="preserve">Mutuo, Cobro Ejecutivo De</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Otros Ordinarios</t>
+          <t xml:space="preserve">Nombre, Autorización Cambio De</t>
         </is>
       </c>
       <c r="B31" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Otros Ordinarios</t>
+          <t xml:space="preserve">Obligación De Dar, Cumplimiento</t>
         </is>
       </c>
       <c r="B32" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Otros Sumarios</t>
+          <t xml:space="preserve">Otros Ejecutivos</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Pagaré, Cobro De</t>
+          <t xml:space="preserve">Otros Sumarios</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Pagaré, Notificación De Protesto</t>
+          <t xml:space="preserve">Otros Voluntarios</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Perjuicios, Indemnización De</t>
+          <t xml:space="preserve">Pagaré, Cobro De</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>3</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Perpetua Memoria, Información</t>
+          <t xml:space="preserve">Pagaré, Notificación De Protesto</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Pesos, Cobro De</t>
+          <t xml:space="preserve">Perjuicios, Indemnización De</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Posesión Efectiva</t>
+          <t xml:space="preserve">Pesos, Cobro De</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Precario, Inc. 2º Art. 2.195 C.c</t>
+          <t xml:space="preserve">Posesión Efectiva</t>
         </is>
       </c>
       <c r="B40" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
+          <t xml:space="preserve">Precario, Inc. 2º Art. 2.195 C.c</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Sentencia Penal Condenatoria</t>
+          <t xml:space="preserve">Prenda Sin Desplazamiento, Ley 20.190</t>
         </is>
       </c>
       <c r="B42" s="65">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
+        </is>
+      </c>
+      <c r="B43" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">Reconocimiento Firma,Citación Y Confesión De Deuda</t>
+        </is>
+      </c>
+      <c r="B44" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="inlineStr" r="A45">
+        <is>
+          <t xml:space="preserve">Registro Civil, Gestión Art. 6 Ley 17.344</t>
+        </is>
+      </c>
+      <c r="B45" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">Vehículos Motorizados, Inscripciones En Registro</t>
+        </is>
+      </c>
+      <c r="B46" s="65">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
